--- a/New_codes/results_mip.xlsx
+++ b/New_codes/results_mip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/kaisar_usc_edu/Documents/CVRP/Codes/New_codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2CDF2BECAC5F2ECD9DEF3F71E0BFDA10FE44E849" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46E0ECE4-38F1-214C-BF1A-6CD7FA30AB00}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_2CDF2BECAC5F2ECD9DEF3F71E0BFDA10FE44E849" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECBCCFF4-CD58-5848-95A9-7950110AC522}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10820" yWindow="500" windowWidth="38400" windowHeight="19880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -59,12 +59,6 @@
     <t>[[0, 3, 1, 0], [0, 5, 4, 0]]</t>
   </si>
   <si>
-    <t>{'p1': 3.75, 'p2': 0.0, 'p3': 0.0, 'p4': 9.13, 'p5': 26.07, 'p6': 13.74}</t>
-  </si>
-  <si>
-    <t>[[0, 6, 1, 0], [0, 5, 4, 0]]</t>
-  </si>
-  <si>
     <t>{'p1': 7.58, 'p2': 4.07, 'p3': 11.5, 'p4': 20.86, 'p5': 9.12, 'p6': 6.18, 'p7': 13.11}</t>
   </si>
   <si>
@@ -77,12 +71,6 @@
     <t>[[0, 8, 2, 0], [0, 7, 3, 1, 0], [0, 6, 4, 5, 0]]</t>
   </si>
   <si>
-    <t>{'p1': -0.0, 'p2': 10.89, 'p3': 8.89, 'p4': 10.12, 'p5': 11.02, 'p6': 11.9, 'p7': 16.82, 'p8': 5.08, 'p9': 5.94}</t>
-  </si>
-  <si>
-    <t>[[0, 7, 9, 3, 0], [0, 2, 8, 0], [0, 5, 4, 6, 0]]</t>
-  </si>
-  <si>
     <t>{'p1': 0.0, 'p2': 5.0, 'p3': 11.85, 'p4': 15.2, 'p5': 0.0, 'p6': 9.52, 'p7': 9.72, 'p8': 11.42, 'p9': 11.38, 'p10': 0.0}</t>
   </si>
   <si>
@@ -117,6 +105,18 @@
   </si>
   <si>
     <t>[[0, 5, 4, 2, 0], [0, 9, 15, 7, 8, 0], [0, 12, 6, 10, 0], [0, 1, 14, 3, 0], [0, 13, 11, 0]]</t>
+  </si>
+  <si>
+    <t>{'p1': 115.48, 'p2': 93.49, 'p3': 0.0, 'p4': 145.59, 'p5': 54.54, 'p6': 0.0}</t>
+  </si>
+  <si>
+    <t>[[0, 1, 2, 0], [0, 4, 5, 0]]</t>
+  </si>
+  <si>
+    <t>{'p1': 130.22, 'p2': 42.43, 'p3': 76.03, 'p4': 93.87, 'p5': 163.63, 'p6': 0.0, 'p7': 0.0, 'p8': 0.0, 'p9': 73.69}</t>
+  </si>
+  <si>
+    <t>[[0, 4, 5, 0], [0, 1, 2, 0], [0, 3, 9, 0]]</t>
   </si>
 </sst>
 </file>
@@ -194,6 +194,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -520,22 +524,22 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>130.3721185121683</v>
+        <v>244.72097283915861</v>
       </c>
       <c r="C2">
-        <v>123.7301786982933</v>
+        <v>227.19589236906751</v>
       </c>
       <c r="D2">
-        <v>106.8680411786399</v>
+        <v>58.871832264794982</v>
       </c>
       <c r="E2">
-        <v>50.42</v>
+        <v>233.76</v>
       </c>
       <c r="F2">
-        <v>12.14352563718114</v>
+        <v>58.410548316981249</v>
       </c>
       <c r="G2">
-        <v>0.20447691599838441</v>
+        <v>0.35492670792154968</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -543,22 +547,22 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>210.53334158969889</v>
+        <v>273.6378244939126</v>
       </c>
       <c r="C3">
-        <v>189.96561653652429</v>
+        <v>212.4373913643073</v>
       </c>
       <c r="D3">
-        <v>120.8721779596877</v>
+        <v>110.7618323633703</v>
       </c>
       <c r="E3">
-        <v>52.69</v>
+        <v>409.1</v>
       </c>
       <c r="F3">
-        <v>16.479903421957651</v>
+        <v>136.21561670969379</v>
       </c>
       <c r="G3">
-        <v>0.15835087490268049</v>
+        <v>1.9735454160254451</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -566,22 +570,22 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>210.8577052885081</v>
+        <v>324.61304952773582</v>
       </c>
       <c r="C4">
-        <v>203.51487757890499</v>
+        <v>225.1196365106745</v>
       </c>
       <c r="D4">
-        <v>203.51487757890499</v>
+        <v>167.71480652142921</v>
       </c>
       <c r="E4">
-        <v>72.419999999999987</v>
+        <v>551.26</v>
       </c>
       <c r="F4">
-        <v>36.700809261839581</v>
+        <v>331.64941376951992</v>
       </c>
       <c r="G4">
-        <v>2.0465889999177311</v>
+        <v>11.60661474999506</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -589,22 +593,22 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>202.37013142788521</v>
+        <v>257.77205659423959</v>
       </c>
       <c r="C5">
-        <v>195.77393126393511</v>
+        <v>180.85258600200621</v>
       </c>
       <c r="D5">
-        <v>195.77393126393511</v>
+        <v>180.85258600200621</v>
       </c>
       <c r="E5">
-        <v>75.56</v>
+        <v>578.65</v>
       </c>
       <c r="F5">
-        <v>32.993697723786241</v>
+        <v>256.38073401131908</v>
       </c>
       <c r="G5">
-        <v>3.415520458016545</v>
+        <v>75.989527750061825</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -612,22 +616,22 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>213.85265362300751</v>
+        <v>318.52727057535071</v>
       </c>
       <c r="C6">
-        <v>206.8876438233541</v>
+        <v>246.53599893058851</v>
       </c>
       <c r="D6">
-        <v>201.9333728396326</v>
+        <v>149.31304448511059</v>
       </c>
       <c r="E6">
-        <v>80.66</v>
+        <v>579.87</v>
       </c>
       <c r="F6">
-        <v>28.63599045255792</v>
+        <v>175.15725102199181</v>
       </c>
       <c r="G6">
-        <v>15.945341167040169</v>
+        <v>82.045277167111635</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -635,144 +639,26 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>305.40594787443399</v>
+        <v>362.29771693459929</v>
       </c>
       <c r="C7">
-        <v>273.24085795702069</v>
+        <v>298.20049184746199</v>
       </c>
       <c r="D7">
-        <v>157.99377101886111</v>
+        <v>169.75463441316541</v>
       </c>
       <c r="E7">
-        <v>74.089999999999989</v>
+        <v>716.45</v>
       </c>
       <c r="F7">
-        <v>16.760840645707379</v>
+        <v>213.6679106209003</v>
       </c>
       <c r="G7">
-        <v>63.076877999817953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>242.65517624096719</v>
-      </c>
-      <c r="C8">
-        <v>232.33885556160629</v>
-      </c>
-      <c r="D8">
-        <v>210.09334048852071</v>
-      </c>
-      <c r="E8">
-        <v>91.84</v>
-      </c>
-      <c r="F8">
-        <v>23.769043909512899</v>
-      </c>
-      <c r="G8">
-        <v>158.0992590831593</v>
+        <v>828.92279291606974</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>236.02440151152589</v>
-      </c>
-      <c r="C9">
-        <v>228.61309112978839</v>
-      </c>
-      <c r="D9">
-        <v>228.61309112978839</v>
-      </c>
-      <c r="E9">
-        <v>101.42</v>
-      </c>
-      <c r="F9">
-        <v>37.070854215572133</v>
-      </c>
-      <c r="G9">
-        <v>982.04847558401525</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>288.47641408068517</v>
-      </c>
-      <c r="C10">
-        <v>273.15512405663219</v>
-      </c>
-      <c r="D10">
-        <v>244.362873112584</v>
-      </c>
-      <c r="E10">
-        <v>101.39</v>
-      </c>
-      <c r="F10">
-        <v>40.615419370095907</v>
-      </c>
-      <c r="G10">
-        <v>1088.393553249771</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>298.378061238724</v>
-      </c>
-      <c r="C11">
-        <v>287.8158123002288</v>
-      </c>
-      <c r="D11">
-        <v>287.8158123002288</v>
-      </c>
-      <c r="E11">
-        <v>107.67</v>
-      </c>
-      <c r="F11">
-        <v>52.796188877249527</v>
-      </c>
-      <c r="G11">
-        <v>3026.5599861249789</v>
-      </c>
-      <c r="H11">
-        <v>0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>302.35759185971659</v>
-      </c>
-      <c r="C12">
-        <v>295.06270005357487</v>
-      </c>
-      <c r="D12">
-        <v>295.06270005357487</v>
-      </c>
-      <c r="E12">
-        <v>126.76</v>
-      </c>
-      <c r="F12">
-        <v>36.479131537694499</v>
-      </c>
-      <c r="G12">
-        <v>3053.0946127909701</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.23</v>
-      </c>
+      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -783,7 +669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -814,10 +702,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -825,10 +713,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -836,10 +724,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -847,10 +735,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -858,10 +746,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -869,10 +757,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -880,10 +768,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -891,10 +779,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -902,10 +790,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -913,10 +801,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/New_codes/results_mip.xlsx
+++ b/New_codes/results_mip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/kaisar_usc_edu/Documents/CVRP/Codes/New_codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_2CDF2BECAC5F2ECD9DEF3F71E0BFDA10FE44E849" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECBCCFF4-CD58-5848-95A9-7950110AC522}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_2CDF2BECAC5F2ECD9DEF3F71E0BFDA10FE44E849" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F8ED92E-842F-B240-8BF6-A5CA7C2B847A}"/>
   <bookViews>
-    <workbookView xWindow="10820" yWindow="500" windowWidth="38400" windowHeight="19880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -194,10 +194,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -654,7 +650,7 @@
         <v>213.6679106209003</v>
       </c>
       <c r="G7">
-        <v>828.92279291606974</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -669,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
